--- a/DMS/Templates/Report_Sales_Order_General.xlsx
+++ b/DMS/Templates/Report_Sales_Order_General.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D748EC-7E6E-42E7-9711-7C80D69D8883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC05DD6-D171-4242-B965-25600D83BDB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,6 +171,7 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -191,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -214,86 +215,47 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,172 +540,172 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:10" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="7" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="9" t="s">
         <v>18</v>
       </c>
     </row>

--- a/DMS/Templates/Report_Sales_Order_General.xlsx
+++ b/DMS/Templates/Report_Sales_Order_General.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC05DD6-D171-4242-B965-25600D83BDB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415450B9-276C-40C7-94ED-0921DD184034}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -227,35 +227,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,74 +543,74 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="5.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -656,56 +659,56 @@
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="11" t="s">
         <v>18</v>
       </c>
     </row>

--- a/DMS/Templates/Report_Sales_Order_General.xlsx
+++ b/DMS/Templates/Report_Sales_Order_General.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415450B9-276C-40C7-94ED-0921DD184034}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC45282-AB3A-4894-A0E8-7B8C7587DB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,6 +236,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -251,14 +254,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,56 +543,56 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="15" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="3"/>
+    <col min="9" max="9" width="15.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -612,7 +612,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,37 +644,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="12" t="s">
@@ -690,25 +690,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="11" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="13" t="s">
         <v>18</v>
       </c>
     </row>

--- a/DMS/Templates/Report_Sales_Order_General.xlsx
+++ b/DMS/Templates/Report_Sales_Order_General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC45282-AB3A-4894-A0E8-7B8C7587DB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDBC382-7046-419C-8272-6C63A39C2AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,34 +93,34 @@
     <t>{{ReportSalesOrderGenerals.OrganizationName}}</t>
   </si>
   <si>
-    <t>{{ReportSalesOrderGenerals.IndirectSalesOrders.STT}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderGenerals.IndirectSalesOrders.Code}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderGenerals.IndirectSalesOrders.BuyerStoreName}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderGenerals.IndirectSalesOrders.SellerStoreName}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderGenerals.IndirectSalesOrders.SaleEmployeeName}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderGenerals.IndirectSalesOrders.Discount}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderGenerals.IndirectSalesOrders.SubTotal}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderGenerals.IndirectSalesOrders.TaxValue}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderGenerals.IndirectSalesOrders.Total}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderGenerals.IndirectSalesOrders.eOrderDate}}</t>
+    <t>{{ReportSalesOrderGenerals.SalesOrders.STT}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderGenerals.SalesOrders.Code}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderGenerals.SalesOrders.BuyerStoreName}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderGenerals.SalesOrders.SellerStoreName}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderGenerals.SalesOrders.SaleEmployeeName}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderGenerals.SalesOrders.eOrderDate}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderGenerals.SalesOrders.SubTotal}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderGenerals.SalesOrders.Discount}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderGenerals.SalesOrders.TaxValue}}</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderGenerals.SalesOrders.Total}}</t>
   </si>
 </sst>
 </file>
@@ -239,6 +239,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -253,12 +259,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +543,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,35 +562,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -645,18 +645,18 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -675,40 +675,40 @@
         <v>26</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="13" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="8" t="s">
         <v>18</v>
       </c>
     </row>

--- a/DMS/Templates/Report_Sales_Order_General.xlsx
+++ b/DMS/Templates/Report_Sales_Order_General.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDBC382-7046-419C-8272-6C63A39C2AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5C78FE-7520-4EF1-A192-AD745F228905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>STT</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>{{ReportSalesOrderGenerals.SalesOrders.Total}}</t>
+  </si>
+  <si>
+    <t>Trạng thái đại lý</t>
+  </si>
+  <si>
+    <t>{{ReportSalesOrderGenerals.SalesOrders.BuyerStoreStatusName}}</t>
   </si>
 </sst>
 </file>
@@ -540,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,17 +557,18 @@
     <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="20.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -571,14 +578,16 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -591,28 +600,30 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,28 +634,31 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -657,8 +671,9 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -669,28 +684,31 @@
         <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>3</v>
       </c>
@@ -699,26 +717,27 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Report_Sales_Order_General.xlsx
+++ b/DMS/Templates/Report_Sales_Order_General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5C78FE-7520-4EF1-A192-AD745F228905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB9CDB-AAF4-4FFF-9094-66FD61CF615A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>VAT</t>
   </si>
   <si>
-    <t>BÁO CÁO TỔNG HỢP BÁN HÀNG</t>
-  </si>
-  <si>
     <t>{{Start}}</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>{{ReportSalesOrderGenerals.SalesOrders.BuyerStoreStatusName}}</t>
+  </si>
+  <si>
+    <t>BÁO CÁO TỔNG HỢP BÁN HÀNG GIÁN TIẾP</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A4" sqref="A4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +589,7 @@
     </row>
     <row r="4" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -611,13 +611,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -634,7 +634,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -675,37 +675,37 @@
     </row>
     <row r="9" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
@@ -719,16 +719,16 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Report_Sales_Order_General.xlsx
+++ b/DMS/Templates/Report_Sales_Order_General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB9CDB-AAF4-4FFF-9094-66FD61CF615A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F0A2E1-4957-43BC-99C9-D19F4FFBBCDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/DMS/Templates/Report_Sales_Order_General.xlsx
+++ b/DMS/Templates/Report_Sales_Order_General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F0A2E1-4957-43BC-99C9-D19F4FFBBCDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886B94EB-9D5A-45AA-A371-54C58FF63471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Tổng tiền chưa chiết khấu</t>
   </si>
   <si>
-    <t>VAT</t>
-  </si>
-  <si>
     <t>{{Start}}</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>{{Total.SubTotal}}</t>
   </si>
   <si>
-    <t>{{Total.TotalTax}}</t>
-  </si>
-  <si>
     <t>{{ReportSalesOrderGenerals.OrganizationName}}</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
   </si>
   <si>
     <t>{{ReportSalesOrderGenerals.SalesOrders.Discount}}</t>
-  </si>
-  <si>
-    <t>{{ReportSalesOrderGenerals.SalesOrders.TaxValue}}</t>
   </si>
   <si>
     <t>{{ReportSalesOrderGenerals.SalesOrders.Total}}</t>
@@ -137,7 +128,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -546,29 +537,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="14" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="3" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="10" width="16.125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -580,16 +570,16 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -600,30 +590,27 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -652,15 +639,12 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -671,44 +655,40 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="I9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="10" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>3</v>
       </c>
@@ -719,25 +699,22 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A4:J4"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
